--- a/4027ccom/db_project/comedieta.xlsx
+++ b/4027ccom/db_project/comedieta.xlsx
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>Rachel Field</t>
-  </si>
-  <si>
-    <t>Rafael Cruz-Eméric</t>
   </si>
   <si>
     <t>Laboratorio de Teatro para las escuelas, Verano 1952.  El espantapájaros es traducción de Victoria Espinosa.</t>
@@ -528,6 +525,9 @@
   </si>
   <si>
     <t>Jones Gardner Helmann, Lorna Williamson Talbot</t>
+  </si>
+  <si>
+    <t>Rafael Cruz Eméric</t>
   </si>
 </sst>
 </file>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1016,7 +1016,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -1120,7 +1120,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>36</v>
@@ -1147,7 +1147,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>28</v>
@@ -1171,19 +1171,19 @@
         <v>1949</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>41</v>
@@ -1192,7 +1192,7 @@
         <v>35</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -1207,16 +1207,16 @@
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>41</v>
@@ -1225,7 +1225,7 @@
         <v>35</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="22" x14ac:dyDescent="0.15">
@@ -1298,10 +1298,10 @@
         <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>47</v>
@@ -1330,10 +1330,10 @@
         <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>47</v>
@@ -1413,7 +1413,7 @@
         <v>41</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.15">
@@ -1436,16 +1436,16 @@
         <v>35</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="22" x14ac:dyDescent="0.15">
@@ -1456,28 +1456,28 @@
         <v>49</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="165" x14ac:dyDescent="0.15">
@@ -1488,28 +1488,28 @@
         <v>49</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="H17" s="3" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>41</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="22" x14ac:dyDescent="0.15">
@@ -1520,10 +1520,10 @@
         <v>49</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>52</v>
@@ -1532,16 +1532,16 @@
         <v>35</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="33" x14ac:dyDescent="0.15">
@@ -1549,31 +1549,31 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>41</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="33" x14ac:dyDescent="0.15">
@@ -1581,31 +1581,31 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="33" x14ac:dyDescent="0.15">
@@ -1613,31 +1613,31 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="22" x14ac:dyDescent="0.15">
@@ -1645,28 +1645,28 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>42</v>
@@ -1677,31 +1677,31 @@
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="22" x14ac:dyDescent="0.15">
@@ -1709,31 +1709,31 @@
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="33" x14ac:dyDescent="0.15">
@@ -1741,31 +1741,31 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="F25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="22" x14ac:dyDescent="0.15">
@@ -1773,31 +1773,31 @@
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="F26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="22" x14ac:dyDescent="0.15">
@@ -1805,31 +1805,31 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="I27" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="121" x14ac:dyDescent="0.15">
@@ -1837,31 +1837,31 @@
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="132" x14ac:dyDescent="0.15">
@@ -1869,31 +1869,31 @@
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="99" x14ac:dyDescent="0.15">
@@ -1901,17 +1901,17 @@
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="F30" s="3" t="s">
         <v>35</v>
       </c>
@@ -1919,13 +1919,13 @@
         <v>35</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="44" x14ac:dyDescent="0.15">
@@ -1933,31 +1933,31 @@
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="J31" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="44" x14ac:dyDescent="0.15">
@@ -1965,31 +1965,31 @@
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="E32" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="132" x14ac:dyDescent="0.15">
@@ -1997,31 +1997,31 @@
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="H33" s="3" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
